--- a/Orcamentos_E_Servicos/data.xlsx
+++ b/Orcamentos_E_Servicos/data.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macbook\Desktop\ManagementSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macbook\Desktop\Management_System\Orcamentos_E_Servicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD53F8-A2D7-4FD3-910B-C8888098C0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D738BCB9-CFE1-4D23-9523-D01F28B2C933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{D562CD76-5F39-40BC-8E26-5DAF7189AB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="orcamentos" sheetId="2" r:id="rId1"/>
-    <sheet name="servicos" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Numero_Orcamento</t>
   </si>
@@ -544,113 +543,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E68A82-A935-4AC3-8B94-CDA5270C7117}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>44563</v>
-      </c>
-      <c r="N2" s="2">
-        <v>44622</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>